--- a/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
+++ b/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.180.1\02教員教科\#高橋宏明\日本ゲーム大賞\2019\司チーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4183305\Documents\GitHub\StandZodiac\仕様書関連\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>ファイル名</t>
     <phoneticPr fontId="2"/>
@@ -201,6 +201,50 @@
     <rPh sb="12" eb="13">
       <t>ガラ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かに座　立ち絵</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kani.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つり目ツインテール。制服っぽい服装。</t>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイフク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かに座　自機</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_kani.jpg</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -643,7 +687,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -768,21 +812,35 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>

--- a/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
+++ b/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
@@ -98,9 +98,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ohituzi.jpg</t>
-  </si>
-  <si>
     <t>相模</t>
     <rPh sb="0" eb="2">
       <t>サガミ</t>
@@ -150,10 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>s_ohituzi.jpg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>おうし座　立ち絵</t>
     <rPh sb="3" eb="4">
       <t>ザ</t>
@@ -177,14 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>oushi.jpg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s_oushi.jpg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>優しい母親っぽい感じ。牛柄のワンピース。</t>
     <rPh sb="0" eb="1">
       <t>ヤサ</t>
@@ -217,10 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>kani.jpg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>つり目ツインテール。制服っぽい服装。</t>
     <rPh sb="2" eb="3">
       <t>メ</t>
@@ -244,7 +225,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>s_kani.jpg</t>
+    <t>ohituzi.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_ohituzi.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oushi.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_oushi.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kani.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_kani.png</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -687,7 +688,7 @@
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -737,19 +738,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -757,13 +758,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
@@ -775,19 +776,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -795,13 +796,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="6"/>
@@ -813,19 +814,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -833,13 +834,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>

--- a/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
+++ b/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>ファイル名</t>
     <phoneticPr fontId="2"/>
@@ -246,6 +246,496 @@
   </si>
   <si>
     <t>s_kani.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おひつじ座　表情差分　１</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ohituzi_a.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おひつじ座　表情差分　２</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おひつじ座　表情差分　３</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おうし座　表情差分　１</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おうし座　表情差分　２</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おうし座　表情差分　３</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かに座　表情差分　１</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かに座　表情差分　２</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かに座　表情差分　３</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ohituzi_b.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ohituzi_c.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oishi_a.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oishi_b.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oishi_c.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kani_a.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kani_b.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kani_c.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　男　立ち絵</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　男　自機</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　男　表情差分　１</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　男　表情差分　２</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　男　表情差分　３</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　女　立ち絵</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　女　自機</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　女　表情差分　１</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　女　表情差分　２</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたご座　女　表情差分　３</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_hutago1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago_a.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago_b.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago_c.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_hutago2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago2_a.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago2_b.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hutago2_c.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おとめ座　立ち絵</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おとめ座　自機</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おとめ座　表情差分　１</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おとめ座　表情差分　２</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おとめ座　表情差分　３</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>otome.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_otome.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>otome_a.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>otome_b.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>otome_c.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てんびん座　立ち絵</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てんびん座　自機</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てんびん座　表情差分　１</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てんびん座　表情差分　２</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てんびん座　表情差分　３</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tenbin.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_tenbin.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tenbin_a.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tenbin_b.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tenbin_c.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>子供、双子の兄妹。</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フタゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お姉さん。糸目でロングヘアー。</t>
+    <rPh sb="1" eb="2">
+      <t>ネエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イトメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弁護士っぽいスーツ。眼鏡。</t>
+    <rPh sb="0" eb="3">
+      <t>ベンゴシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メガネ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -253,7 +743,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,12 +774,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="MS-PGothic"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="MS-PGothic"/>
       <charset val="128"/>
     </font>
@@ -331,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,23 +837,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I46"/>
+  <dimension ref="B2:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -776,10 +1251,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -787,19 +1262,17 @@
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -814,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -825,19 +1298,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -845,17 +1316,25 @@
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="1"/>
     </row>
@@ -863,117 +1342,181 @@
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -983,9 +1526,15 @@
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -995,9 +1544,15 @@
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1007,251 +1562,739 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
         <v>24</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="9"/>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9"/>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="9"/>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="9"/>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="9"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="9"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="9"/>
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="9"/>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9"/>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="9"/>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="9"/>
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9"/>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9"/>
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="9"/>
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9"/>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9"/>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="1">
+        <v>65</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="1">
+        <v>66</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="1">
+        <v>67</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="1">
+        <v>69</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="1">
+        <v>70</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="1">
+        <v>71</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="1">
+        <v>72</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
+++ b/仕様書関連/仕様書/StandZodiac_イラスト仕様書.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ファイル名</t>
     <phoneticPr fontId="2"/>
@@ -735,6 +735,84 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>メガネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しし座　立ち絵</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さそり座　立ち絵</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いて座　立ち絵</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>やぎ座　立ち絵</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みずがめ座　立ち絵</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うお座　立ち絵</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1162,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1856,7 +1934,9 @@
       <c r="B39" s="1">
         <v>36</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -1916,7 +1996,9 @@
       <c r="B44" s="1">
         <v>41</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1976,7 +2058,9 @@
       <c r="B49" s="1">
         <v>46</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
@@ -2036,7 +2120,9 @@
       <c r="B54" s="1">
         <v>51</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -2096,7 +2182,9 @@
       <c r="B59" s="1">
         <v>56</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="8"/>
@@ -2156,7 +2244,9 @@
       <c r="B64" s="1">
         <v>61</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
